--- a/Data/KPI.xlsx
+++ b/Data/KPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="930">
   <si>
     <t xml:space="preserve">månad</t>
   </si>
@@ -2796,6 +2796,12 @@
   </si>
   <si>
     <t xml:space="preserve">2023-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023M05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-05</t>
   </si>
 </sst>
 </file>
@@ -13130,6 +13136,29 @@
         <v>927</v>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>928</v>
+      </c>
+      <c r="B438" t="n">
+        <v>255.7</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D438" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="E438" t="s">
+        <v>920</v>
+      </c>
+      <c r="F438" t="s">
+        <v>21</v>
+      </c>
+      <c r="G438" t="s">
+        <v>929</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/KPI.xlsx
+++ b/Data/KPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="934">
   <si>
     <t xml:space="preserve">månad</t>
   </si>
@@ -2802,6 +2802,18 @@
   </si>
   <si>
     <t xml:space="preserve">2023-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023M06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023M07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07</t>
   </si>
 </sst>
 </file>
@@ -13159,6 +13171,52 @@
         <v>929</v>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>930</v>
+      </c>
+      <c r="B439" t="n">
+        <v>258.12</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D439" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E439" t="s">
+        <v>920</v>
+      </c>
+      <c r="F439" t="s">
+        <v>24</v>
+      </c>
+      <c r="G439" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>932</v>
+      </c>
+      <c r="B440" t="n">
+        <v>257.69</v>
+      </c>
+      <c r="C440" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="D440" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E440" t="s">
+        <v>920</v>
+      </c>
+      <c r="F440" t="s">
+        <v>27</v>
+      </c>
+      <c r="G440" t="s">
+        <v>933</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/KPI.xlsx
+++ b/Data/KPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="936">
   <si>
     <t xml:space="preserve">månad</t>
   </si>
@@ -2814,6 +2814,12 @@
   </si>
   <si>
     <t xml:space="preserve">2023-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023M08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-08</t>
   </si>
 </sst>
 </file>
@@ -13217,6 +13223,29 @@
         <v>933</v>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>934</v>
+      </c>
+      <c r="B441" t="n">
+        <v>257.45</v>
+      </c>
+      <c r="C441" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="D441" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E441" t="s">
+        <v>920</v>
+      </c>
+      <c r="F441" t="s">
+        <v>30</v>
+      </c>
+      <c r="G441" t="s">
+        <v>935</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/KPI.xlsx
+++ b/Data/KPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="940">
   <si>
     <t xml:space="preserve">månad</t>
   </si>
@@ -2826,6 +2826,12 @@
   </si>
   <si>
     <t xml:space="preserve">2023-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023M09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09</t>
   </si>
 </sst>
 </file>
@@ -14575,6 +14581,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>938</v>
+      </c>
+      <c r="B442" t="n">
+        <v>258.45</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D442" t="n">
+        <v>4</v>
+      </c>
+      <c r="E442" t="s">
+        <v>922</v>
+      </c>
+      <c r="F442" t="s">
+        <v>35</v>
+      </c>
+      <c r="G442" t="s">
+        <v>939</v>
+      </c>
+      <c r="H442" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/KPI.xlsx
+++ b/Data/KPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="940">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="942">
   <si>
     <t xml:space="preserve">månad</t>
   </si>
@@ -2832,6 +2832,12 @@
   </si>
   <si>
     <t xml:space="preserve">2023-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023M10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10</t>
   </si>
 </sst>
 </file>
@@ -14607,6 +14613,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>940</v>
+      </c>
+      <c r="B443" t="n">
+        <v>258.64</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D443" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E443" t="s">
+        <v>922</v>
+      </c>
+      <c r="F443" t="s">
+        <v>38</v>
+      </c>
+      <c r="G443" t="s">
+        <v>941</v>
+      </c>
+      <c r="H443" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/KPI.xlsx
+++ b/Data/KPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="944">
   <si>
     <t xml:space="preserve">månad</t>
   </si>
@@ -2838,6 +2838,12 @@
   </si>
   <si>
     <t xml:space="preserve">2023-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023M11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-11</t>
   </si>
 </sst>
 </file>
@@ -14639,6 +14645,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>942</v>
+      </c>
+      <c r="B444" t="n">
+        <v>259.02</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D444" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E444" t="s">
+        <v>922</v>
+      </c>
+      <c r="F444" t="s">
+        <v>41</v>
+      </c>
+      <c r="G444" t="s">
+        <v>943</v>
+      </c>
+      <c r="H444" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/KPI.xlsx
+++ b/Data/KPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="946">
   <si>
     <t xml:space="preserve">månad</t>
   </si>
@@ -2844,6 +2844,12 @@
   </si>
   <si>
     <t xml:space="preserve">2023-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023M12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-12</t>
   </si>
 </sst>
 </file>
@@ -14671,6 +14677,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>944</v>
+      </c>
+      <c r="B445" t="n">
+        <v>260.65</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D445" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E445" t="s">
+        <v>922</v>
+      </c>
+      <c r="F445" t="s">
+        <v>44</v>
+      </c>
+      <c r="G445" t="s">
+        <v>945</v>
+      </c>
+      <c r="H445" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/KPI.xlsx
+++ b/Data/KPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="949">
   <si>
     <t xml:space="preserve">månad</t>
   </si>
@@ -2850,6 +2850,15 @@
   </si>
   <si>
     <t xml:space="preserve">2023-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024M01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01</t>
   </si>
 </sst>
 </file>
@@ -14703,6 +14712,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>946</v>
+      </c>
+      <c r="B446" t="n">
+        <v>259.78</v>
+      </c>
+      <c r="C446" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D446" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E446" t="s">
+        <v>947</v>
+      </c>
+      <c r="F446" t="s">
+        <v>10</v>
+      </c>
+      <c r="G446" t="s">
+        <v>948</v>
+      </c>
+      <c r="H446" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/KPI.xlsx
+++ b/Data/KPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="951">
   <si>
     <t xml:space="preserve">månad</t>
   </si>
@@ -2859,6 +2859,12 @@
   </si>
   <si>
     <t xml:space="preserve">2024-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024M02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-02</t>
   </si>
 </sst>
 </file>
@@ -14738,6 +14744,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>949</v>
+      </c>
+      <c r="B447" t="n">
+        <v>260.29</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D447" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E447" t="s">
+        <v>947</v>
+      </c>
+      <c r="F447" t="s">
+        <v>14</v>
+      </c>
+      <c r="G447" t="s">
+        <v>950</v>
+      </c>
+      <c r="H447" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Data/KPI.xlsx
+++ b/Data/KPI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="953">
   <si>
     <t xml:space="preserve">månad</t>
   </si>
@@ -2865,6 +2865,12 @@
   </si>
   <si>
     <t xml:space="preserve">2024-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024M03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-03</t>
   </si>
 </sst>
 </file>
@@ -14770,6 +14776,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>951</v>
+      </c>
+      <c r="B448" t="n">
+        <v>260.53</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D448" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E448" t="s">
+        <v>947</v>
+      </c>
+      <c r="F448" t="s">
+        <v>17</v>
+      </c>
+      <c r="G448" t="s">
+        <v>952</v>
+      </c>
+      <c r="H448" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
